--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2914F74B-B632-B14B-AF10-0D856EB8C429}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-2175" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>i</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>X_pos_square</t>
+  </si>
+  <si>
+    <t>Y_pos_square</t>
+  </si>
+  <si>
+    <t>Shape_Background</t>
+  </si>
+  <si>
+    <t>media/shape_background.png</t>
   </si>
 </sst>
 </file>
@@ -481,24 +493,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -535,8 +548,17 @@
       <c r="L1" t="s">
         <v>33</v>
       </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -573,8 +595,17 @@
       <c r="L2" t="s">
         <v>42</v>
       </c>
+      <c r="M2">
+        <v>-0.18</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -599,8 +630,14 @@
       <c r="H3">
         <v>0.112</v>
       </c>
+      <c r="M3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -625,8 +662,14 @@
       <c r="H4">
         <v>0.13500000000000001</v>
       </c>
+      <c r="M4">
+        <v>-0.1</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -651,8 +694,14 @@
       <c r="H5">
         <v>0.115</v>
       </c>
+      <c r="M5">
+        <v>-0.06</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -677,8 +726,14 @@
       <c r="H6">
         <v>0.115</v>
       </c>
+      <c r="M6">
+        <v>0.06</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -703,8 +758,14 @@
       <c r="H7">
         <v>0.13500000000000001</v>
       </c>
+      <c r="M7">
+        <v>0.1</v>
+      </c>
+      <c r="N7">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -729,8 +790,14 @@
       <c r="H8">
         <v>0.112</v>
       </c>
+      <c r="M8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -754,6 +821,12 @@
       </c>
       <c r="H9">
         <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.18</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2914F74B-B632-B14B-AF10-0D856EB8C429}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5051BD-ADE9-254A-A0CA-51BDAD9A8AD3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,16 +166,16 @@
     <t>f</t>
   </si>
   <si>
-    <t>X_pos_square</t>
-  </si>
-  <si>
-    <t>Y_pos_square</t>
-  </si>
-  <si>
     <t>Shape_Background</t>
   </si>
   <si>
     <t>media/shape_background.png</t>
+  </si>
+  <si>
+    <t>X_pos_rec</t>
+  </si>
+  <si>
+    <t>Y_pos_rec</t>
   </si>
 </sst>
 </file>
@@ -228,6 +228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,6 +513,7 @@
     <col min="11" max="11" width="17.1640625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -549,13 +554,13 @@
         <v>33</v>
       </c>
       <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -602,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5051BD-ADE9-254A-A0CA-51BDAD9A8AD3}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636F066F-668D-4841-B751-C62A9AA3D384}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="N3">
         <v>0.02</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="N8">
         <v>0.02</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636F066F-668D-4841-B751-C62A9AA3D384}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A92F0C-8517-E245-9103-25A18C7F5B34}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>-0.15</v>
       </c>
       <c r="N3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>-0.1</v>
       </c>
       <c r="N4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>0.15</v>
       </c>
       <c r="N8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A92F0C-8517-E245-9103-25A18C7F5B34}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149EAEE6-ABEF-CA4F-BBE2-92EC1B153A66}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.15</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="N3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="N4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149EAEE6-ABEF-CA4F-BBE2-92EC1B153A66}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD27A58-A924-624D-99B2-AD4A16B215B7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.55000000000000004</v>
+        <v>-0.45</v>
       </c>
       <c r="N3">
         <v>0.04</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="N4">
         <v>0.04</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
         <v>0.04</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="N8">
         <v>0.04</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD27A58-A924-624D-99B2-AD4A16B215B7}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701A3768-D718-5244-B4B8-AF36B42EA496}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.45</v>
+        <v>-0.38</v>
       </c>
       <c r="N3">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.3</v>
+        <v>-0.26</v>
       </c>
       <c r="N4">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="N7">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="N8">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701A3768-D718-5244-B4B8-AF36B42EA496}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{930349EA-1E9B-AB46-870D-F17ED98B2D20}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.5</v>
+        <v>-0.46</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="N3">
         <v>0.06</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.26</v>
+        <v>-0.22</v>
       </c>
       <c r="N4">
         <v>0.06</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.14000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="N7">
         <v>0.06</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="N8">
         <v>0.06</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{930349EA-1E9B-AB46-870D-F17ED98B2D20}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6884802-545E-D949-AD99-C8C7A0F4FA81}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.46</v>
+        <v>-0.34</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.34</v>
+        <v>-0.26</v>
       </c>
       <c r="N3">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.22</v>
+        <v>-0.16</v>
       </c>
       <c r="N4">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="N7">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="N8">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6884802-545E-D949-AD99-C8C7A0F4FA81}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACDB377-78DB-B94C-9270-03477BADB6FF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.34</v>
+        <v>-0.31</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="N3">
         <v>0.1</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.16</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="N4">
         <v>0.1</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N7">
         <v>0.1</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="N8">
         <v>0.1</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACDB377-78DB-B94C-9270-03477BADB6FF}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7016A856-627E-CF44-891D-EB9DB818C17A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>-0.23</v>
       </c>
       <c r="N3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>0.23</v>
       </c>
       <c r="N8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7016A856-627E-CF44-891D-EB9DB818C17A}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE0E4D-40DD-6C4A-A966-C7A97C18AE93}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,10 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,7 +496,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +635,7 @@
         <v>-0.23</v>
       </c>
       <c r="N3">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,7 +795,7 @@
         <v>0.23</v>
       </c>
       <c r="N8">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE0E4D-40DD-6C4A-A966-C7A97C18AE93}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AA78E4-15B7-844D-87B1-D5145E5E61ED}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,6 +228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.31</v>
+        <v>-0.27</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -632,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="N3">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -664,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="N4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -696,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -728,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -760,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -792,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -824,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AA78E4-15B7-844D-87B1-D5145E5E61ED}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39834461-737B-2340-A7FC-70671C0EB73E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.27</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="N3">
         <v>0.08</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="N4">
         <v>0.09</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="N7">
         <v>0.09</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N8">
         <v>0.08</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39834461-737B-2340-A7FC-70671C0EB73E}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689EF3B5-5219-5E43-B042-E4807470D768}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.21</v>
+        <v>-0.17</v>
       </c>
       <c r="N3">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.13</v>
+        <v>-0.1</v>
       </c>
       <c r="N4">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.21</v>
+        <v>-0.17</v>
       </c>
       <c r="N8">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689EF3B5-5219-5E43-B042-E4807470D768}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC06B0E4-9412-1F43-8C7B-4FBBCABA4047}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.22</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.17</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="N3">
         <v>7.0000000000000007E-2</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="N4">
         <v>0.08</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.05</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N7">
         <v>0.08</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>-0.17</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="N8">
         <v>7.0000000000000007E-2</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>-0.22</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC06B0E4-9412-1F43-8C7B-4FBBCABA4047}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{956989F6-2F90-0C4A-AB4F-78997EFD5616}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
       <c r="N4">
         <v>0.08</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>-0.17499999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N8">
         <v>7.0000000000000007E-2</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>-0.22500000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{956989F6-2F90-0C4A-AB4F-78997EFD5616}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349BAE3F-CD48-3247-96CF-4A4228862A4A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.155</v>
+        <v>-0.105</v>
       </c>
       <c r="N4">
         <v>0.08</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.15</v>
+        <v>0.105</v>
       </c>
       <c r="N7">
         <v>0.08</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349BAE3F-CD48-3247-96CF-4A4228862A4A}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1A55E8-6524-C84B-99B2-FFEF9391CD9E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.22500000000000001</v>
+        <v>-0.24</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.17499999999999999</v>
+        <v>-0.185</v>
       </c>
       <c r="N3">
         <v>7.0000000000000007E-2</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.105</v>
+        <v>-0.115</v>
       </c>
       <c r="N4">
         <v>0.08</v>
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-5.5E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="N7">
         <v>0.08</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.17499999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="N8">
         <v>7.0000000000000007E-2</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.22500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1A55E8-6524-C84B-99B2-FFEF9391CD9E}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EEF616-CA95-D249-9013-939B17856DD1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.185</v>
+        <v>-0.155</v>
       </c>
       <c r="N3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.115</v>
+        <v>-0.1</v>
       </c>
       <c r="N4">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.06</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.115</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.185</v>
+        <v>0.155</v>
       </c>
       <c r="N8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EEF616-CA95-D249-9013-939B17856DD1}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C523CF84-18D6-C349-9E24-F99610BB3310}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.155</v>
+        <v>-0.125</v>
       </c>
       <c r="N3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="N4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-5.5E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.155</v>
+        <v>0.125</v>
       </c>
       <c r="N8">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C523CF84-18D6-C349-9E24-F99610BB3310}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC28326D-47B6-A44F-9163-0C3E1709802A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.125</v>
+        <v>-0.155</v>
       </c>
       <c r="N3">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="N4">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-4.4999999999999998E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.125</v>
+        <v>0.155</v>
       </c>
       <c r="N8">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC28326D-47B6-A44F-9163-0C3E1709802A}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADF3FAC-1223-A443-98A9-D68DC2D67DD7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +671,7 @@
         <v>-0.1</v>
       </c>
       <c r="N4">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADF3FAC-1223-A443-98A9-D68DC2D67DD7}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B246CAB-BDAC-3248-99F5-DE4B48654B63}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.2</v>
+        <v>-0.155</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.155</v>
+        <v>-0.125</v>
       </c>
       <c r="N3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="N4">
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-5.5E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.155</v>
+        <v>0.125</v>
       </c>
       <c r="N8">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B246CAB-BDAC-3248-99F5-DE4B48654B63}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B022903-721D-F74E-8C85-827280FDB2E3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.155</v>
+        <v>-0.125</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.125</v>
+        <v>-0.105</v>
       </c>
       <c r="N3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-0.08</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="N4">
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7">
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="N8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.155</v>
+        <v>0.125</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B022903-721D-F74E-8C85-827280FDB2E3}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE50A5A-A359-254D-A2B8-02F4DC67EC23}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.125</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.105</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="N3">
         <v>0.04</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-7.0000000000000007E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="N4">
         <v>4.4999999999999998E-2</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="N7">
         <v>4.4999999999999998E-2</v>
@@ -796,7 +796,7 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.105</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N8">
         <v>0.04</v>
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.125</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N9">
         <v>0</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE50A5A-A359-254D-A2B8-02F4DC67EC23}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75AB2C40-9485-DD4B-8D7F-8809E4720FDA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,10 +601,10 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-1.2E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="N3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="N4">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="N7">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>1.2E-2</v>
+        <v>0.13</v>
       </c>
       <c r="N8">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,10 +828,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75AB2C40-9485-DD4B-8D7F-8809E4720FDA}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0917CE50-FB69-E647-B127-BF8ED6B71C22}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
         <v>0.13</v>
       </c>
       <c r="N8">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="N9">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0917CE50-FB69-E647-B127-BF8ED6B71C22}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F6A0E5-20EB-8A4F-9B50-5D18F839D038}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
         <v>-0.16500000000000001</v>
       </c>
       <c r="N2">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -831,7 +831,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="N9">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F6A0E5-20EB-8A4F-9B50-5D18F839D038}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA973C30-9FF8-C54B-A583-C7A4934B98EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.16500000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="N2">
         <v>-0.01</v>
@@ -636,10 +636,10 @@
         <v>0.112</v>
       </c>
       <c r="M3">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="N3">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-8.5000000000000006E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="N4">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>0.115</v>
       </c>
       <c r="M5">
-        <v>-0.05</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0.115</v>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>8.5000000000000006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N7">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>0.112</v>
       </c>
       <c r="M8">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N8">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.16500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="N9">
         <v>-0.01</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA973C30-9FF8-C54B-A583-C7A4934B98EE}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970999B3-D182-F14C-9308-B3E5978E79D2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,10 +601,10 @@
         <v>42</v>
       </c>
       <c r="M2">
-        <v>-0.19</v>
+        <v>-0.185</v>
       </c>
       <c r="N2">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -668,7 +668,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M4">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="N4">
         <v>0.06</v>
@@ -764,7 +764,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="M7">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="N7">
         <v>0.06</v>
@@ -828,10 +828,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="N9">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970999B3-D182-F14C-9308-B3E5978E79D2}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A6BA850-0105-CD4B-B722-0EE6ABCCB4C3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>-0.15</v>
       </c>
       <c r="N3">
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>0.15</v>
       </c>
       <c r="N8">
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A6BA850-0105-CD4B-B722-0EE6ABCCB4C3}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{1C922EB3-57E4-4C2D-9C02-D9C1F81356E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F5CAD7-1BDC-1844-B56F-A43A20E30DCC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>-0.15</v>
       </c>
       <c r="N3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>0.15</v>
       </c>
       <c r="N8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
